--- a/biology/Botanique/Nela/Nela.xlsx
+++ b/biology/Botanique/Nela/Nela.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Nela est un cultivar de pommier domestique.
 Nom botanique: Malus domestica Borkh Nela
@@ -512,13 +524,15 @@
           <t>Fruit</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Utilisation: pomme à couteau
 Calibre: moyen (75 - 80 mm)
 Épicarpe: rouge intense à profond, brillant.
 Chair: jaunâtre, très juteuse, à peine croquante.
-Teneur en sucre: moyenne (12,2 %Brix)[1].
+Teneur en sucre: moyenne (12,2 %Brix).
 Arôme:
 Pédoncule: long.</t>
         </is>
@@ -548,7 +562,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Diffusée en 1997 par l'institut de botanique expérimentale de Prague, République tchèque , Europe.
 </t>
@@ -579,7 +595,9 @@
           <t>Parenté</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Pedigree: Prima x Krasava (Otcovo x Wagener).
 </t>
@@ -610,10 +628,12 @@
           <t>Pollinisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Groupe de floraison: A (très précoce à précoce).
-Pollinisation par: Alkmène, Topaz(S), Hana(S)[2].
+Pollinisation par: Alkmène, Topaz(S), Hana(S).
 </t>
         </is>
       </c>
@@ -642,13 +662,15 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Maturité: début août
 Conservation: jusque fin septembre
 Maladies: 
-Tavelure: cultivar possédant le gène Vf de résistance aux races communes[3].
-Oïdium: faible sensibilité[4].</t>
+Tavelure: cultivar possédant le gène Vf de résistance aux races communes.
+Oïdium: faible sensibilité.</t>
         </is>
       </c>
     </row>
